--- a/eta/日均铁水产量_合并数据.xlsx
+++ b/eta/日均铁水产量_合并数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>236.8597</v>
+        <v>235.5399</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>236.5671</v>
+        <v>235.3215</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>236.2937</v>
+        <v>235.204</v>
       </c>
     </row>
     <row r="5">
@@ -491,7 +491,7 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>237.2014</v>
+        <v>235.5856</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>238.6976</v>
+        <v>238.4865</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>240.5879</v>
+        <v>240.2599</v>
       </c>
     </row>
     <row r="8">
@@ -524,7 +524,7 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>241.1502</v>
+        <v>240.9289</v>
       </c>
     </row>
     <row r="9">
@@ -535,7 +535,7 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>241.1166</v>
+        <v>241.0211</v>
       </c>
     </row>
     <row r="10">
@@ -546,7 +546,7 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>241.14</v>
+        <v>241.0211</v>
       </c>
     </row>
     <row r="11">
@@ -557,7 +557,7 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>241.2294</v>
+        <v>241.0235</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +568,7 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>241.7053</v>
+        <v>241.3064</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +579,7 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>241.2979</v>
+        <v>241.1131</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +590,7 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>241.2979</v>
+        <v>241.1131</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +601,7 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>241.0549</v>
+        <v>241.0741</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +612,7 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>241.1006</v>
+        <v>241.0709</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +623,7 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>241.5286</v>
+        <v>241.3884</v>
       </c>
     </row>
     <row r="18">
@@ -634,7 +634,7 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>241.5213</v>
+        <v>241.4246</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>241.3417</v>
+        <v>241.1254</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>242.2374</v>
+        <v>241.4157</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>241.7493</v>
+        <v>241.1559</v>
       </c>
     </row>
     <row r="22">
@@ -678,7 +678,7 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>241.49</v>
+        <v>241.1485</v>
       </c>
     </row>
     <row r="23">
@@ -689,7 +689,7 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>242.0937</v>
+        <v>241.6195</v>
       </c>
     </row>
     <row r="24">
@@ -700,7 +700,7 @@
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>241.7141</v>
+        <v>241.7263</v>
       </c>
     </row>
     <row r="25">
@@ -711,7 +711,7 @@
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>241.5181</v>
+        <v>241.7154</v>
       </c>
     </row>
     <row r="26">
@@ -722,7 +722,7 @@
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>241.9896</v>
+        <v>242.1287</v>
       </c>
     </row>
     <row r="27">
@@ -733,7 +733,7 @@
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>243.2627</v>
+        <v>242.8227</v>
       </c>
     </row>
     <row r="28">
@@ -744,7 +744,7 @@
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>241.4055</v>
+        <v>241.624</v>
       </c>
     </row>
     <row r="29">
@@ -755,7 +755,7 @@
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>241.0823</v>
+        <v>241.1641</v>
       </c>
     </row>
     <row r="30">
@@ -766,7 +766,7 @@
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>241.1169</v>
+        <v>240.9217</v>
       </c>
     </row>
     <row r="31">
@@ -777,7 +777,7 @@
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>240.527</v>
+        <v>240.3627</v>
       </c>
     </row>
     <row r="32">
